--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121292a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121292a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -515,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +615,24 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>5.85</v>
+      </c>
+      <c r="D6">
+        <v>6.2</v>
+      </c>
+      <c r="E6">
+        <v>4.14</v>
+      </c>
+      <c r="F6">
+        <v>3.45</v>
+      </c>
+      <c r="G6">
+        <v>2.57</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
@@ -627,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.85</v>
+        <v>9.35</v>
       </c>
       <c r="D7">
-        <v>6.2</v>
+        <v>14.57</v>
       </c>
       <c r="E7">
-        <v>4.14</v>
+        <v>8.91</v>
       </c>
       <c r="F7">
-        <v>3.45</v>
+        <v>6.45</v>
       </c>
       <c r="G7">
-        <v>2.57</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -650,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.35</v>
+        <v>18.2</v>
       </c>
       <c r="D8">
-        <v>14.57</v>
+        <v>15.09</v>
       </c>
       <c r="E8">
-        <v>8.91</v>
+        <v>17.16</v>
       </c>
       <c r="F8">
-        <v>6.45</v>
+        <v>17.03</v>
       </c>
       <c r="G8">
-        <v>6.7</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -673,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>18.2</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>15.09</v>
+        <v>6.46</v>
       </c>
       <c r="E9">
-        <v>17.16</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="F9">
-        <v>17.03</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>6.02</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -696,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>8.41</v>
       </c>
       <c r="D10">
-        <v>6.46</v>
+        <v>22.9</v>
       </c>
       <c r="E10">
-        <v>8.039999999999999</v>
+        <v>17.41</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G10">
-        <v>2.48</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -719,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.41</v>
+        <v>13.82</v>
       </c>
       <c r="D11">
-        <v>22.9</v>
+        <v>11.83</v>
       </c>
       <c r="E11">
-        <v>17.41</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F11">
-        <v>9.220000000000001</v>
+        <v>6.81</v>
       </c>
       <c r="G11">
-        <v>5.83</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -742,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.82</v>
+        <v>39.69</v>
       </c>
       <c r="D12">
-        <v>11.83</v>
+        <v>13.88</v>
       </c>
       <c r="E12">
-        <v>8.529999999999999</v>
+        <v>13.86</v>
       </c>
       <c r="F12">
-        <v>6.81</v>
+        <v>13.55</v>
       </c>
       <c r="G12">
-        <v>6.73</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -765,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>39.69</v>
+        <v>11.52</v>
       </c>
       <c r="D13">
-        <v>13.88</v>
+        <v>11.14</v>
       </c>
       <c r="E13">
-        <v>13.86</v>
+        <v>9.4</v>
       </c>
       <c r="F13">
-        <v>13.55</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G13">
-        <v>3.99</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -788,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.52</v>
+        <v>3.7</v>
       </c>
       <c r="D14">
-        <v>11.14</v>
+        <v>4.58</v>
       </c>
       <c r="E14">
-        <v>9.4</v>
+        <v>3.83</v>
       </c>
       <c r="F14">
-        <v>8.279999999999999</v>
+        <v>3.68</v>
       </c>
       <c r="G14">
-        <v>5.64</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -811,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>16.47</v>
       </c>
       <c r="D15">
-        <v>4.58</v>
+        <v>27.07</v>
       </c>
       <c r="E15">
-        <v>3.83</v>
+        <v>14.47</v>
       </c>
       <c r="F15">
-        <v>3.68</v>
+        <v>21.02</v>
       </c>
       <c r="G15">
-        <v>2.39</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -834,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>16.47</v>
+        <v>9.35</v>
       </c>
       <c r="D16">
-        <v>27.07</v>
+        <v>11.81</v>
       </c>
       <c r="E16">
-        <v>14.47</v>
+        <v>14.28</v>
       </c>
       <c r="F16">
-        <v>21.02</v>
+        <v>10.16</v>
       </c>
       <c r="G16">
-        <v>11.2</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -857,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.35</v>
+        <v>9.76</v>
       </c>
       <c r="D17">
-        <v>11.81</v>
+        <v>7.23</v>
       </c>
       <c r="E17">
-        <v>14.28</v>
+        <v>9.33</v>
       </c>
       <c r="F17">
-        <v>10.16</v>
+        <v>7.89</v>
       </c>
       <c r="G17">
-        <v>10.31</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -880,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.76</v>
+        <v>10.88</v>
       </c>
       <c r="D18">
-        <v>7.23</v>
+        <v>10.94</v>
       </c>
       <c r="E18">
-        <v>9.33</v>
+        <v>12.63</v>
       </c>
       <c r="F18">
-        <v>7.89</v>
+        <v>14.8</v>
       </c>
       <c r="G18">
-        <v>5.52</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -903,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.88</v>
+        <v>10.53</v>
       </c>
       <c r="D19">
-        <v>10.94</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="E19">
-        <v>12.63</v>
+        <v>10.72</v>
       </c>
       <c r="F19">
-        <v>14.8</v>
+        <v>10.69</v>
       </c>
       <c r="G19">
-        <v>3.85</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -926,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.53</v>
+        <v>10.69</v>
       </c>
       <c r="D20">
-        <v>8.949999999999999</v>
+        <v>13.93</v>
       </c>
       <c r="E20">
-        <v>10.72</v>
+        <v>10.25</v>
       </c>
       <c r="F20">
-        <v>10.69</v>
+        <v>8.4</v>
       </c>
       <c r="G20">
-        <v>6.01</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -949,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.69</v>
+        <v>6.33</v>
       </c>
       <c r="D21">
-        <v>13.93</v>
+        <v>22.04</v>
       </c>
       <c r="E21">
-        <v>10.25</v>
+        <v>15.7</v>
       </c>
       <c r="F21">
-        <v>8.4</v>
+        <v>13.82</v>
       </c>
       <c r="G21">
-        <v>4.88</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -972,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.33</v>
+        <v>13.9</v>
       </c>
       <c r="D22">
-        <v>22.04</v>
+        <v>17.77</v>
       </c>
       <c r="E22">
-        <v>15.7</v>
+        <v>14.98</v>
       </c>
       <c r="F22">
-        <v>13.82</v>
+        <v>6.1</v>
       </c>
       <c r="G22">
-        <v>6.44</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -995,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.9</v>
+        <v>5.85</v>
       </c>
       <c r="D23">
-        <v>17.77</v>
+        <v>10.52</v>
       </c>
       <c r="E23">
-        <v>14.98</v>
+        <v>6.92</v>
       </c>
       <c r="F23">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="G23">
-        <v>7.75</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1018,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.85</v>
+        <v>5.81</v>
       </c>
       <c r="D24">
-        <v>10.52</v>
+        <v>2.54</v>
       </c>
       <c r="E24">
-        <v>6.92</v>
+        <v>2.77</v>
       </c>
       <c r="F24">
-        <v>6.13</v>
+        <v>1.91</v>
       </c>
       <c r="G24">
-        <v>4.83</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1041,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.81</v>
+        <v>6.66</v>
       </c>
       <c r="D25">
-        <v>2.54</v>
+        <v>5.32</v>
       </c>
       <c r="E25">
-        <v>2.77</v>
+        <v>4.52</v>
       </c>
       <c r="F25">
-        <v>1.91</v>
+        <v>4.19</v>
       </c>
       <c r="G25">
-        <v>1.14</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1064,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>6.66</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>5.32</v>
+        <v>13.44</v>
       </c>
       <c r="E26">
-        <v>4.52</v>
+        <v>14.21</v>
       </c>
       <c r="F26">
-        <v>4.19</v>
+        <v>6.87</v>
       </c>
       <c r="G26">
-        <v>2.39</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1087,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>20.51</v>
       </c>
       <c r="D27">
-        <v>13.44</v>
+        <v>4.29</v>
       </c>
       <c r="E27">
-        <v>14.21</v>
+        <v>5.3</v>
       </c>
       <c r="F27">
-        <v>6.87</v>
+        <v>3.54</v>
       </c>
       <c r="G27">
-        <v>6.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1110,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>20.51</v>
+        <v>12.73</v>
       </c>
       <c r="D28">
-        <v>4.29</v>
+        <v>3.34</v>
       </c>
       <c r="E28">
-        <v>5.3</v>
+        <v>4.43</v>
       </c>
       <c r="F28">
-        <v>3.54</v>
+        <v>2.61</v>
       </c>
       <c r="G28">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1133,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>12.73</v>
+        <v>6.84</v>
       </c>
       <c r="D29">
-        <v>3.34</v>
+        <v>3.52</v>
       </c>
       <c r="E29">
-        <v>4.43</v>
+        <v>3.75</v>
       </c>
       <c r="F29">
-        <v>2.61</v>
+        <v>2.98</v>
       </c>
       <c r="G29">
-        <v>1.63</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1156,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>6.84</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D30">
-        <v>3.52</v>
+        <v>4.98</v>
       </c>
       <c r="E30">
-        <v>3.75</v>
+        <v>5.62</v>
       </c>
       <c r="F30">
-        <v>2.98</v>
+        <v>4.65</v>
       </c>
       <c r="G30">
-        <v>2.46</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1179,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>9.470000000000001</v>
+        <v>18.37</v>
       </c>
       <c r="D31">
-        <v>4.98</v>
+        <v>5.04</v>
       </c>
       <c r="E31">
-        <v>5.62</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="F31">
-        <v>4.65</v>
+        <v>6.13</v>
       </c>
       <c r="G31">
-        <v>2.87</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1202,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>18.37</v>
+        <v>9.94</v>
       </c>
       <c r="D32">
-        <v>5.04</v>
+        <v>7.11</v>
       </c>
       <c r="E32">
-        <v>8.539999999999999</v>
+        <v>5.92</v>
       </c>
       <c r="F32">
-        <v>6.13</v>
+        <v>4.92</v>
       </c>
       <c r="G32">
-        <v>6.16</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1225,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>9.94</v>
+        <v>6.49</v>
       </c>
       <c r="D33">
-        <v>7.11</v>
+        <v>5.18</v>
       </c>
       <c r="E33">
-        <v>5.92</v>
+        <v>4.58</v>
       </c>
       <c r="F33">
-        <v>4.92</v>
+        <v>3.18</v>
       </c>
       <c r="G33">
-        <v>4.08</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1248,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>6.49</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D34">
-        <v>5.18</v>
+        <v>14.38</v>
       </c>
       <c r="E34">
-        <v>4.58</v>
+        <v>6.87</v>
       </c>
       <c r="F34">
-        <v>3.18</v>
+        <v>7.99</v>
       </c>
       <c r="G34">
-        <v>1.84</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1271,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>9.880000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="D35">
-        <v>14.38</v>
+        <v>14.33</v>
       </c>
       <c r="E35">
-        <v>6.87</v>
+        <v>13.9</v>
       </c>
       <c r="F35">
-        <v>7.99</v>
+        <v>8.43</v>
       </c>
       <c r="G35">
-        <v>5.12</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1294,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>9.359999999999999</v>
+        <v>11.55</v>
       </c>
       <c r="D36">
-        <v>14.33</v>
+        <v>5.27</v>
       </c>
       <c r="E36">
-        <v>13.9</v>
+        <v>6.74</v>
       </c>
       <c r="F36">
-        <v>8.43</v>
+        <v>4.09</v>
       </c>
       <c r="G36">
-        <v>3.72</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1317,41 +1332,18 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>11.55</v>
+        <v>41.31</v>
       </c>
       <c r="D37">
-        <v>5.27</v>
+        <v>9.25</v>
       </c>
       <c r="E37">
-        <v>6.74</v>
+        <v>9.99</v>
       </c>
       <c r="F37">
-        <v>4.09</v>
+        <v>6.1</v>
       </c>
       <c r="G37">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>41.31</v>
-      </c>
-      <c r="D38">
-        <v>9.25</v>
-      </c>
-      <c r="E38">
-        <v>9.99</v>
-      </c>
-      <c r="F38">
-        <v>6.1</v>
-      </c>
-      <c r="G38">
         <v>2.13</v>
       </c>
     </row>
